--- a/database/industries/zeraat/simorgh/product/yearly.xlsx
+++ b/database/industries/zeraat/simorgh/product/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\zeraat\simorgh\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\zeraat\simorgh\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D828D099-7027-4521-B9A2-DE36D06F0402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="58">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>سیمرغ-سیمرغ</t>
@@ -36,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -51,6 +49,9 @@
     <t>دوازده ماهه منتهی به 1400/09</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>سایر</t>
   </si>
   <si>
@@ -126,9 +127,6 @@
     <t>کارتن</t>
   </si>
   <si>
-    <t>هزارعدد</t>
-  </si>
-  <si>
     <t>هزار عدد</t>
   </si>
   <si>
@@ -159,10 +157,10 @@
     <t>نرخ فروش</t>
   </si>
   <si>
-    <t>سایر / ریال</t>
-  </si>
-  <si>
-    <t>ریال / ریال</t>
+    <t>متغرقه / ریال</t>
+  </si>
+  <si>
+    <t>هزارقطعه / ریال</t>
   </si>
   <si>
     <t>هزار عدد / ریال</t>
@@ -174,19 +172,25 @@
     <t>تن / ریال</t>
   </si>
   <si>
-    <t>هزار قطعه / ریال</t>
-  </si>
-  <si>
-    <t>هزارقطعه / ریال</t>
-  </si>
-  <si>
-    <t>هزارعدد / ریال</t>
-  </si>
-  <si>
     <t>کیلوگرم / ریال</t>
   </si>
   <si>
+    <t>سایر درآمدها</t>
+  </si>
+  <si>
+    <t>ارزش منصفانه تولیدات کشاورزی</t>
+  </si>
+  <si>
+    <t>بهای تمام شده انتسابی</t>
+  </si>
+  <si>
+    <t>خالص افزایش (کاهش) ارزش منصفانه داراییهای زیستی غیر مولد</t>
+  </si>
+  <si>
     <t>مبلغ بهای تمام شده</t>
+  </si>
+  <si>
+    <t>هزینه های تولید</t>
   </si>
   <si>
     <t>سود ناخالص</t>
@@ -195,7 +199,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -365,7 +369,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -377,7 +381,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -424,6 +428,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -459,6 +480,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -610,8 +648,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I149"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:I170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -747,11 +785,11 @@
       <c r="G10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>12</v>
+      <c r="H10" s="9">
+        <v>0</v>
       </c>
       <c r="I10" s="9">
-        <v>0</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
@@ -769,11 +807,11 @@
       <c r="G11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="11" t="s">
-        <v>12</v>
+      <c r="H11" s="11">
+        <v>1111</v>
       </c>
       <c r="I11" s="11">
-        <v>1111</v>
+        <v>866</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
@@ -806,8 +844,8 @@
         <v>16</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="11">
-        <v>18125</v>
+      <c r="E13" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>12</v>
@@ -815,11 +853,11 @@
       <c r="G13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="11" t="s">
-        <v>12</v>
+      <c r="H13" s="11">
+        <v>20513</v>
       </c>
       <c r="I13" s="11">
-        <v>20513</v>
+        <v>18926</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
@@ -830,8 +868,8 @@
         <v>16</v>
       </c>
       <c r="D14" s="9"/>
-      <c r="E14" s="9">
-        <v>0</v>
+      <c r="E14" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>12</v>
@@ -839,11 +877,11 @@
       <c r="G14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>12</v>
+      <c r="H14" s="9">
+        <v>74663</v>
       </c>
       <c r="I14" s="9">
-        <v>74663</v>
+        <v>81024</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
@@ -854,8 +892,8 @@
         <v>16</v>
       </c>
       <c r="D15" s="11"/>
-      <c r="E15" s="11">
-        <v>49232</v>
+      <c r="E15" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>12</v>
@@ -863,11 +901,11 @@
       <c r="G15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="11" t="s">
-        <v>12</v>
+      <c r="H15" s="11">
+        <v>70501</v>
       </c>
       <c r="I15" s="11">
-        <v>70501</v>
+        <v>62107</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
@@ -878,8 +916,8 @@
         <v>16</v>
       </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="9">
-        <v>0</v>
+      <c r="E16" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>12</v>
@@ -911,11 +949,11 @@
       <c r="G17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="11" t="s">
-        <v>12</v>
+      <c r="H17" s="11">
+        <v>18238</v>
       </c>
       <c r="I17" s="11">
-        <v>18238</v>
+        <v>13876</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -926,8 +964,8 @@
         <v>22</v>
       </c>
       <c r="D18" s="9"/>
-      <c r="E18" s="9">
-        <v>28599</v>
+      <c r="E18" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>12</v>
@@ -950,8 +988,8 @@
         <v>21</v>
       </c>
       <c r="D19" s="11"/>
-      <c r="E19" s="11">
-        <v>60755</v>
+      <c r="E19" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>12</v>
@@ -959,11 +997,11 @@
       <c r="G19" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="11" t="s">
-        <v>12</v>
+      <c r="H19" s="11">
+        <v>523556</v>
       </c>
       <c r="I19" s="11">
-        <v>523556</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -974,8 +1012,8 @@
         <v>16</v>
       </c>
       <c r="D20" s="9"/>
-      <c r="E20" s="9">
-        <v>0</v>
+      <c r="E20" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>12</v>
@@ -1007,11 +1045,11 @@
       <c r="G21" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="11" t="s">
-        <v>12</v>
+      <c r="H21" s="11">
+        <v>5329</v>
       </c>
       <c r="I21" s="11">
-        <v>5329</v>
+        <v>6013</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
@@ -1022,8 +1060,8 @@
         <v>22</v>
       </c>
       <c r="D22" s="9"/>
-      <c r="E22" s="9">
-        <v>4795</v>
+      <c r="E22" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>12</v>
@@ -1073,14 +1111,14 @@
       <c r="E24" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="9" t="s">
-        <v>12</v>
+      <c r="F24" s="9">
+        <v>0</v>
       </c>
       <c r="G24" s="9">
         <v>0</v>
       </c>
-      <c r="H24" s="9">
-        <v>0</v>
+      <c r="H24" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>12</v>
@@ -1093,7 +1131,7 @@
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13">
-        <v>161506</v>
+        <v>0</v>
       </c>
       <c r="F25" s="13">
         <v>0</v>
@@ -1102,10 +1140,10 @@
         <v>0</v>
       </c>
       <c r="H25" s="13">
-        <v>0</v>
+        <v>713911</v>
       </c>
       <c r="I25" s="13">
-        <v>713911</v>
+        <v>183454</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
@@ -1178,20 +1216,20 @@
         <v>11</v>
       </c>
       <c r="D31" s="9"/>
-      <c r="E31" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="9">
-        <v>0</v>
+      <c r="E31" s="9">
+        <v>0</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H31" s="9" t="s">
-        <v>12</v>
+      <c r="H31" s="9">
+        <v>0</v>
       </c>
       <c r="I31" s="9">
-        <v>0</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
@@ -1205,14 +1243,14 @@
       <c r="E32" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="11" t="s">
-        <v>12</v>
+      <c r="F32" s="11">
+        <v>0</v>
       </c>
       <c r="G32" s="11">
         <v>0</v>
       </c>
-      <c r="H32" s="11">
-        <v>0</v>
+      <c r="H32" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="I32" s="11" t="s">
         <v>12</v>
@@ -1226,11 +1264,11 @@
         <v>21</v>
       </c>
       <c r="D33" s="9"/>
-      <c r="E33" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="9">
-        <v>0</v>
+      <c r="E33" s="9">
+        <v>0</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="G33" s="9" t="s">
         <v>12</v>
@@ -1253,14 +1291,14 @@
       <c r="E34" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F34" s="11" t="s">
-        <v>12</v>
+      <c r="F34" s="11">
+        <v>0</v>
       </c>
       <c r="G34" s="11">
         <v>0</v>
       </c>
-      <c r="H34" s="11">
-        <v>0</v>
+      <c r="H34" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="I34" s="11" t="s">
         <v>12</v>
@@ -1272,8 +1310,8 @@
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
-      <c r="E35" s="9" t="s">
-        <v>12</v>
+      <c r="E35" s="9">
+        <v>0</v>
       </c>
       <c r="F35" s="9">
         <v>0</v>
@@ -1281,8 +1319,8 @@
       <c r="G35" s="9">
         <v>0</v>
       </c>
-      <c r="H35" s="9">
-        <v>0</v>
+      <c r="H35" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I35" s="9" t="s">
         <v>12</v>
@@ -1296,14 +1334,14 @@
         <v>35</v>
       </c>
       <c r="D36" s="11"/>
-      <c r="E36" s="11" t="s">
-        <v>12</v>
+      <c r="E36" s="11">
+        <v>0</v>
       </c>
       <c r="F36" s="11">
         <v>0</v>
       </c>
-      <c r="G36" s="11" t="s">
-        <v>12</v>
+      <c r="G36" s="11">
+        <v>0</v>
       </c>
       <c r="H36" s="11" t="s">
         <v>12</v>
@@ -1314,17 +1352,15 @@
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>36</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C37" s="9"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>12</v>
+      <c r="E37" s="9">
+        <v>0</v>
+      </c>
+      <c r="F37" s="9">
+        <v>0</v>
       </c>
       <c r="G37" s="9">
         <v>0</v>
@@ -1332,136 +1368,138 @@
       <c r="H37" s="9">
         <v>0</v>
       </c>
-      <c r="I37" s="9" t="s">
-        <v>12</v>
+      <c r="I37" s="9">
+        <v>911</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F38" s="11">
-        <v>0</v>
-      </c>
-      <c r="G38" s="11">
-        <v>0</v>
-      </c>
-      <c r="H38" s="11">
-        <v>0</v>
-      </c>
-      <c r="I38" s="11">
-        <v>0</v>
+      <c r="F38" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="D39" s="9"/>
-      <c r="E39" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>12</v>
+      <c r="E39" s="9">
+        <v>1688</v>
+      </c>
+      <c r="F39" s="9">
+        <v>3560</v>
+      </c>
+      <c r="G39" s="9">
+        <v>3184</v>
+      </c>
+      <c r="H39" s="9">
+        <v>994</v>
+      </c>
+      <c r="I39" s="9">
+        <v>1475</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11">
-        <v>18125</v>
+        <v>23226</v>
       </c>
       <c r="F40" s="11">
-        <v>1688</v>
+        <v>102523</v>
       </c>
       <c r="G40" s="11">
-        <v>3560</v>
+        <v>73767</v>
       </c>
       <c r="H40" s="11">
-        <v>3184</v>
+        <v>76356</v>
       </c>
       <c r="I40" s="11">
-        <v>994</v>
+        <v>82136</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9">
-        <v>60755</v>
+        <v>14093</v>
       </c>
       <c r="F41" s="9">
-        <v>23226</v>
+        <v>65160</v>
       </c>
       <c r="G41" s="9">
-        <v>102523</v>
+        <v>60559</v>
       </c>
       <c r="H41" s="9">
-        <v>73767</v>
+        <v>70031</v>
       </c>
       <c r="I41" s="9">
-        <v>76356</v>
+        <v>61559</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D42" s="11"/>
-      <c r="E42" s="11">
-        <v>49232</v>
-      </c>
-      <c r="F42" s="11">
-        <v>14093</v>
-      </c>
-      <c r="G42" s="11">
-        <v>65160</v>
-      </c>
-      <c r="H42" s="11">
-        <v>60559</v>
-      </c>
-      <c r="I42" s="11">
-        <v>70031</v>
+      <c r="E42" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9">
-        <v>0</v>
+        <v>6438</v>
       </c>
       <c r="F43" s="9" t="s">
         <v>12</v>
@@ -1469,11 +1507,11 @@
       <c r="G43" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H43" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>12</v>
+      <c r="H43" s="9">
+        <v>18238</v>
+      </c>
+      <c r="I43" s="9">
+        <v>13576</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
@@ -1481,76 +1519,76 @@
         <v>20</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F44" s="11">
-        <v>6438</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>12</v>
+        <v>24141</v>
+      </c>
+      <c r="G44" s="11">
+        <v>12696</v>
       </c>
       <c r="H44" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I44" s="11">
-        <v>18238</v>
+      <c r="I44" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9">
-        <v>28599</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>12</v>
+        <v>350</v>
+      </c>
+      <c r="F45" s="9">
+        <v>1224</v>
       </c>
       <c r="G45" s="9">
-        <v>24141</v>
+        <v>732</v>
       </c>
       <c r="H45" s="9">
-        <v>12696</v>
-      </c>
-      <c r="I45" s="9" t="s">
-        <v>12</v>
+        <v>223</v>
+      </c>
+      <c r="I45" s="9">
+        <v>409</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D46" s="11"/>
-      <c r="E46" s="11">
-        <v>0</v>
-      </c>
-      <c r="F46" s="11">
-        <v>350</v>
-      </c>
-      <c r="G46" s="11">
-        <v>1224</v>
-      </c>
-      <c r="H46" s="11">
-        <v>732</v>
-      </c>
-      <c r="I46" s="11">
-        <v>223</v>
+      <c r="E46" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>16</v>
@@ -1559,11 +1597,11 @@
       <c r="E47" s="9">
         <v>0</v>
       </c>
-      <c r="F47" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>12</v>
+      <c r="F47" s="9">
+        <v>0</v>
+      </c>
+      <c r="G47" s="9">
+        <v>0</v>
       </c>
       <c r="H47" s="9" t="s">
         <v>12</v>
@@ -1580,8 +1618,8 @@
         <v>16</v>
       </c>
       <c r="D48" s="11"/>
-      <c r="E48" s="11" t="s">
-        <v>12</v>
+      <c r="E48" s="11">
+        <v>0</v>
       </c>
       <c r="F48" s="11">
         <v>0</v>
@@ -1589,8 +1627,8 @@
       <c r="G48" s="11">
         <v>0</v>
       </c>
-      <c r="H48" s="11">
-        <v>0</v>
+      <c r="H48" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="I48" s="11" t="s">
         <v>12</v>
@@ -1598,26 +1636,26 @@
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D49" s="9"/>
-      <c r="E49" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" s="9">
-        <v>0</v>
-      </c>
-      <c r="G49" s="9">
-        <v>0</v>
+      <c r="E49" s="9">
+        <v>2078</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="H49" s="9">
-        <v>0</v>
-      </c>
-      <c r="I49" s="9" t="s">
-        <v>12</v>
+        <v>3127</v>
+      </c>
+      <c r="I49" s="9">
+        <v>2040</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
@@ -1625,44 +1663,44 @@
         <v>25</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F50" s="11">
-        <v>2078</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>12</v>
+        <v>4230</v>
+      </c>
+      <c r="G50" s="11">
+        <v>1451</v>
       </c>
       <c r="H50" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I50" s="11">
-        <v>3127</v>
+      <c r="I50" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9">
-        <v>4795</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" s="9">
-        <v>4230</v>
-      </c>
-      <c r="H51" s="9">
-        <v>1451</v>
+        <v>0</v>
+      </c>
+      <c r="F51" s="9">
+        <v>0</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I51" s="9" t="s">
         <v>12</v>
@@ -1673,17 +1711,17 @@
         <v>39</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D52" s="11"/>
-      <c r="E52" s="11" t="s">
-        <v>12</v>
+      <c r="E52" s="11">
+        <v>0</v>
       </c>
       <c r="F52" s="11">
         <v>0</v>
       </c>
-      <c r="G52" s="11" t="s">
-        <v>12</v>
+      <c r="G52" s="11">
+        <v>0</v>
       </c>
       <c r="H52" s="11" t="s">
         <v>12</v>
@@ -1694,17 +1732,17 @@
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D53" s="9"/>
-      <c r="E53" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>12</v>
+      <c r="E53" s="9">
+        <v>0</v>
+      </c>
+      <c r="F53" s="9">
+        <v>0</v>
       </c>
       <c r="G53" s="9">
         <v>0</v>
@@ -1717,74 +1755,46 @@
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F54" s="11">
-        <v>0</v>
-      </c>
-      <c r="G54" s="11">
-        <v>0</v>
-      </c>
-      <c r="H54" s="11">
-        <v>0</v>
-      </c>
-      <c r="I54" s="11" t="s">
-        <v>12</v>
+      <c r="B54" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13">
+        <v>47873</v>
+      </c>
+      <c r="F54" s="13">
+        <v>200838</v>
+      </c>
+      <c r="G54" s="13">
+        <v>152389</v>
+      </c>
+      <c r="H54" s="13">
+        <v>168969</v>
+      </c>
+      <c r="I54" s="13">
+        <v>162339</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" s="9">
-        <v>0</v>
-      </c>
-      <c r="G55" s="9">
-        <v>0</v>
-      </c>
-      <c r="H55" s="9">
-        <v>0</v>
-      </c>
-      <c r="I55" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13">
-        <v>161506</v>
-      </c>
-      <c r="F56" s="13">
-        <v>47873</v>
-      </c>
-      <c r="G56" s="13">
-        <v>200838</v>
-      </c>
-      <c r="H56" s="13">
-        <v>152389</v>
-      </c>
-      <c r="I56" s="13">
-        <v>168969</v>
-      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
@@ -1796,15 +1806,27 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
+    <row r="58" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B58" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
@@ -1816,81 +1838,97 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B60" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H60" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I60" s="6" t="s">
-        <v>9</v>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9">
+        <v>1121</v>
+      </c>
+      <c r="F60" s="9">
+        <v>83160</v>
+      </c>
+      <c r="G60" s="9">
+        <v>0</v>
+      </c>
+      <c r="H60" s="9">
+        <v>160245</v>
+      </c>
+      <c r="I60" s="9">
+        <v>33950</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
+      <c r="B61" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11">
+        <v>-4468</v>
+      </c>
+      <c r="F61" s="11">
+        <v>-11310</v>
+      </c>
+      <c r="G61" s="11">
+        <v>-13683</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" s="11" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D62" s="9"/>
-      <c r="E62" s="9" t="s">
-        <v>12</v>
+      <c r="E62" s="9">
+        <v>0</v>
       </c>
       <c r="F62" s="9">
-        <v>1121</v>
+        <v>0</v>
       </c>
       <c r="G62" s="9">
-        <v>83160</v>
-      </c>
-      <c r="H62" s="9">
-        <v>0</v>
-      </c>
-      <c r="I62" s="9">
-        <v>160245</v>
+        <v>0</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D63" s="11"/>
-      <c r="E63" s="11" t="s">
-        <v>12</v>
+      <c r="E63" s="11">
+        <v>0</v>
       </c>
       <c r="F63" s="11">
-        <v>-4468</v>
+        <v>0</v>
       </c>
       <c r="G63" s="11">
-        <v>-11310</v>
-      </c>
-      <c r="H63" s="11">
-        <v>-13683</v>
+        <v>0</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="I63" s="11" t="s">
         <v>12</v>
@@ -1898,47 +1936,47 @@
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D64" s="9"/>
-      <c r="E64" s="9" t="s">
-        <v>12</v>
+      <c r="E64" s="9">
+        <v>893</v>
       </c>
       <c r="F64" s="9">
-        <v>0</v>
+        <v>65480</v>
       </c>
       <c r="G64" s="9">
-        <v>0</v>
+        <v>217202</v>
       </c>
       <c r="H64" s="9">
-        <v>0</v>
-      </c>
-      <c r="I64" s="9" t="s">
-        <v>12</v>
+        <v>254187</v>
+      </c>
+      <c r="I64" s="9">
+        <v>361405</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F65" s="11">
-        <v>0</v>
-      </c>
-      <c r="G65" s="11">
-        <v>0</v>
-      </c>
-      <c r="H65" s="11">
-        <v>0</v>
+      <c r="F65" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="I65" s="11" t="s">
         <v>12</v>
@@ -1946,212 +1984,212 @@
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9">
-        <v>34763</v>
+        <v>38484</v>
       </c>
       <c r="F66" s="9">
-        <v>893</v>
+        <v>82569</v>
       </c>
       <c r="G66" s="9">
-        <v>65480</v>
+        <v>85334</v>
       </c>
       <c r="H66" s="9">
-        <v>217202</v>
+        <v>60023</v>
       </c>
       <c r="I66" s="9">
-        <v>254187</v>
+        <v>189256</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11">
-        <v>-4361</v>
-      </c>
-      <c r="F67" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G67" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H67" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I67" s="11" t="s">
-        <v>12</v>
+        <v>32381</v>
+      </c>
+      <c r="F67" s="11">
+        <v>166156</v>
+      </c>
+      <c r="G67" s="11">
+        <v>205911</v>
+      </c>
+      <c r="H67" s="11">
+        <v>323478</v>
+      </c>
+      <c r="I67" s="11">
+        <v>427249</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9">
-        <v>259462</v>
+        <v>1054698</v>
       </c>
       <c r="F68" s="9">
-        <v>38484</v>
+        <v>4644985</v>
       </c>
       <c r="G68" s="9">
-        <v>82569</v>
+        <v>6496492</v>
       </c>
       <c r="H68" s="9">
-        <v>85334</v>
+        <v>12247591</v>
       </c>
       <c r="I68" s="9">
-        <v>60023</v>
+        <v>18292842</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D69" s="11"/>
-      <c r="E69" s="11">
-        <v>73134</v>
-      </c>
-      <c r="F69" s="11">
-        <v>32381</v>
-      </c>
-      <c r="G69" s="11">
-        <v>166156</v>
-      </c>
-      <c r="H69" s="11">
-        <v>205911</v>
-      </c>
-      <c r="I69" s="11">
-        <v>323478</v>
+      <c r="E69" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I69" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9">
-        <v>2737074</v>
+        <v>191778</v>
       </c>
       <c r="F70" s="9">
-        <v>1054698</v>
+        <v>537049</v>
       </c>
       <c r="G70" s="9">
-        <v>4644985</v>
+        <v>207958</v>
       </c>
       <c r="H70" s="9">
-        <v>6496492</v>
+        <v>1103247</v>
       </c>
       <c r="I70" s="9">
-        <v>12247591</v>
+        <v>897219</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11">
-        <v>0</v>
-      </c>
-      <c r="F71" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G71" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H71" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I71" s="11" t="s">
-        <v>12</v>
+        <v>63102</v>
+      </c>
+      <c r="F71" s="11">
+        <v>239391</v>
+      </c>
+      <c r="G71" s="11">
+        <v>163755</v>
+      </c>
+      <c r="H71" s="11">
+        <v>119115</v>
+      </c>
+      <c r="I71" s="11">
+        <v>278589</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D72" s="9"/>
-      <c r="E72" s="9">
-        <v>481006</v>
-      </c>
-      <c r="F72" s="9">
-        <v>191778</v>
-      </c>
-      <c r="G72" s="9">
-        <v>537049</v>
-      </c>
-      <c r="H72" s="9">
-        <v>207958</v>
-      </c>
-      <c r="I72" s="9">
-        <v>1103247</v>
+      <c r="E72" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I72" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11">
         <v>0</v>
       </c>
       <c r="F73" s="11">
-        <v>63102</v>
+        <v>0</v>
       </c>
       <c r="G73" s="11">
-        <v>239391</v>
-      </c>
-      <c r="H73" s="11">
-        <v>163755</v>
-      </c>
-      <c r="I73" s="11">
-        <v>119115</v>
+        <v>0</v>
+      </c>
+      <c r="H73" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I73" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D74" s="9"/>
-      <c r="E74" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G74" s="9" t="s">
-        <v>12</v>
+      <c r="E74" s="9">
+        <v>0</v>
+      </c>
+      <c r="F74" s="9">
+        <v>0</v>
+      </c>
+      <c r="G74" s="9">
+        <v>0</v>
       </c>
       <c r="H74" s="9" t="s">
         <v>12</v>
@@ -2162,26 +2200,26 @@
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D75" s="11"/>
-      <c r="E75" s="11" t="s">
-        <v>12</v>
+      <c r="E75" s="11">
+        <v>89954</v>
       </c>
       <c r="F75" s="11">
-        <v>0</v>
+        <v>164217</v>
       </c>
       <c r="G75" s="11">
-        <v>0</v>
+        <v>74858</v>
       </c>
       <c r="H75" s="11">
-        <v>0</v>
-      </c>
-      <c r="I75" s="11" t="s">
-        <v>12</v>
+        <v>375268</v>
+      </c>
+      <c r="I75" s="11">
+        <v>338771</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
@@ -2189,20 +2227,20 @@
         <v>38</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D76" s="9"/>
-      <c r="E76" s="9" t="s">
-        <v>12</v>
+      <c r="E76" s="9">
+        <v>0</v>
       </c>
       <c r="F76" s="9">
         <v>0</v>
       </c>
-      <c r="G76" s="9">
-        <v>0</v>
-      </c>
-      <c r="H76" s="9">
-        <v>0</v>
+      <c r="G76" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I76" s="9" t="s">
         <v>12</v>
@@ -2210,38 +2248,38 @@
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11">
-        <v>148924</v>
+        <v>0</v>
       </c>
       <c r="F77" s="11">
-        <v>89954</v>
+        <v>0</v>
       </c>
       <c r="G77" s="11">
-        <v>164217</v>
-      </c>
-      <c r="H77" s="11">
-        <v>74858</v>
-      </c>
-      <c r="I77" s="11">
-        <v>375268</v>
+        <v>0</v>
+      </c>
+      <c r="H77" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I77" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D78" s="9"/>
-      <c r="E78" s="9" t="s">
-        <v>12</v>
+      <c r="E78" s="9">
+        <v>0</v>
       </c>
       <c r="F78" s="9">
         <v>0</v>
@@ -2257,74 +2295,46 @@
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B79" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F79" s="11">
-        <v>0</v>
-      </c>
-      <c r="G79" s="11">
-        <v>0</v>
-      </c>
-      <c r="H79" s="11">
-        <v>0</v>
-      </c>
-      <c r="I79" s="11" t="s">
-        <v>12</v>
+      <c r="B79" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13">
+        <v>1467943</v>
+      </c>
+      <c r="F79" s="13">
+        <v>5971697</v>
+      </c>
+      <c r="G79" s="13">
+        <v>7437827</v>
+      </c>
+      <c r="H79" s="13">
+        <v>14643154</v>
+      </c>
+      <c r="I79" s="13">
+        <v>20819281</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B80" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F80" s="9">
-        <v>0</v>
-      </c>
-      <c r="G80" s="9">
-        <v>0</v>
-      </c>
-      <c r="H80" s="9">
-        <v>0</v>
-      </c>
-      <c r="I80" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B81" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13">
-        <v>3730002</v>
-      </c>
-      <c r="F81" s="13">
-        <v>1467943</v>
-      </c>
-      <c r="G81" s="13">
-        <v>5971697</v>
-      </c>
-      <c r="H81" s="13">
-        <v>7437827</v>
-      </c>
-      <c r="I81" s="13">
-        <v>14643154</v>
-      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
@@ -2336,15 +2346,27 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
+    <row r="83" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B83" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I83" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
@@ -2356,48 +2378,64 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B85" s="7" t="s">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B85" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F85" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G85" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H85" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I85" s="6" t="s">
-        <v>9</v>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9">
+        <v>0</v>
+      </c>
+      <c r="F85" s="9">
+        <v>0</v>
+      </c>
+      <c r="G85" s="9">
+        <v>0</v>
+      </c>
+      <c r="H85" s="9">
+        <v>0</v>
+      </c>
+      <c r="I85" s="9">
+        <v>145708155</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
+      <c r="B86" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11">
+        <v>0</v>
+      </c>
+      <c r="F86" s="11">
+        <v>0</v>
+      </c>
+      <c r="G86" s="11">
+        <v>0</v>
+      </c>
+      <c r="H86" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I86" s="11" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C87" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D87" s="9"/>
-      <c r="E87" s="9" t="s">
-        <v>12</v>
+      <c r="E87" s="9">
+        <v>0</v>
       </c>
       <c r="F87" s="9">
         <v>0</v>
@@ -2405,23 +2443,23 @@
       <c r="G87" s="9">
         <v>0</v>
       </c>
-      <c r="H87" s="9">
-        <v>0</v>
-      </c>
-      <c r="I87" s="9">
-        <v>0</v>
+      <c r="H87" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I87" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C88" s="11" t="s">
         <v>47</v>
       </c>
       <c r="D88" s="11"/>
-      <c r="E88" s="11" t="s">
-        <v>12</v>
+      <c r="E88" s="11">
+        <v>0</v>
       </c>
       <c r="F88" s="11">
         <v>0</v>
@@ -2429,8 +2467,8 @@
       <c r="G88" s="11">
         <v>0</v>
       </c>
-      <c r="H88" s="11">
-        <v>0</v>
+      <c r="H88" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="I88" s="11" t="s">
         <v>12</v>
@@ -2438,14 +2476,14 @@
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="8" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D89" s="9"/>
-      <c r="E89" s="9" t="s">
-        <v>12</v>
+      <c r="E89" s="9">
+        <v>0</v>
       </c>
       <c r="F89" s="9">
         <v>0</v>
@@ -2456,13 +2494,13 @@
       <c r="H89" s="9">
         <v>0</v>
       </c>
-      <c r="I89" s="9" t="s">
-        <v>12</v>
+      <c r="I89" s="9">
+        <v>396712404</v>
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C90" s="11" t="s">
         <v>48</v>
@@ -2471,14 +2509,14 @@
       <c r="E90" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F90" s="11">
-        <v>0</v>
-      </c>
-      <c r="G90" s="11">
-        <v>0</v>
-      </c>
-      <c r="H90" s="11">
-        <v>0</v>
+      <c r="F90" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G90" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H90" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="I90" s="11" t="s">
         <v>12</v>
@@ -2486,212 +2524,212 @@
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C91" s="9" t="s">
         <v>49</v>
       </c>
       <c r="D91" s="9"/>
-      <c r="E91" s="9" t="s">
-        <v>12</v>
+      <c r="E91" s="9">
+        <v>22798578</v>
       </c>
       <c r="F91" s="9">
-        <v>0</v>
+        <v>23193539</v>
       </c>
       <c r="G91" s="9">
-        <v>0</v>
+        <v>26800879</v>
       </c>
       <c r="H91" s="9">
-        <v>0</v>
+        <v>60385312</v>
       </c>
       <c r="I91" s="9">
-        <v>0</v>
+        <v>128309153</v>
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C92" s="11" t="s">
         <v>49</v>
       </c>
       <c r="D92" s="11"/>
-      <c r="E92" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F92" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G92" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H92" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I92" s="11" t="s">
-        <v>12</v>
+      <c r="E92" s="11">
+        <v>1394170</v>
+      </c>
+      <c r="F92" s="11">
+        <v>1620670</v>
+      </c>
+      <c r="G92" s="11">
+        <v>2791370</v>
+      </c>
+      <c r="H92" s="11">
+        <v>4236445</v>
+      </c>
+      <c r="I92" s="11">
+        <v>5201726</v>
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="9">
-        <v>14315145</v>
+        <v>74838430</v>
       </c>
       <c r="F93" s="9">
-        <v>22798578</v>
+        <v>71285835</v>
       </c>
       <c r="G93" s="9">
-        <v>23193539</v>
+        <v>107275417</v>
       </c>
       <c r="H93" s="9">
-        <v>26800879</v>
+        <v>174888135</v>
       </c>
       <c r="I93" s="9">
-        <v>60385312</v>
+        <v>297159506</v>
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D94" s="11"/>
-      <c r="E94" s="11">
-        <v>1203753</v>
-      </c>
-      <c r="F94" s="11">
-        <v>1394170</v>
-      </c>
-      <c r="G94" s="11">
-        <v>1620670</v>
-      </c>
-      <c r="H94" s="11">
-        <v>2791370</v>
-      </c>
-      <c r="I94" s="11">
-        <v>4236445</v>
+      <c r="E94" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G94" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H94" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I94" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D95" s="9"/>
       <c r="E95" s="9">
-        <v>55595426</v>
+        <v>29788444</v>
       </c>
       <c r="F95" s="9">
-        <v>74838430</v>
+        <v>22246344</v>
       </c>
       <c r="G95" s="9">
-        <v>71285835</v>
+        <v>16379805</v>
       </c>
       <c r="H95" s="9">
-        <v>107275417</v>
+        <v>60491666</v>
       </c>
       <c r="I95" s="9">
-        <v>174888135</v>
+        <v>66088612</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" s="10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D96" s="11"/>
-      <c r="E96" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F96" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G96" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H96" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I96" s="11" t="s">
-        <v>12</v>
+      <c r="E96" s="11">
+        <v>180291429</v>
+      </c>
+      <c r="F96" s="11">
+        <v>195580882</v>
+      </c>
+      <c r="G96" s="11">
+        <v>223709016</v>
+      </c>
+      <c r="H96" s="11">
+        <v>534147982</v>
+      </c>
+      <c r="I96" s="11">
+        <v>681146699</v>
       </c>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" s="8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D97" s="9"/>
-      <c r="E97" s="9">
-        <v>16818980</v>
-      </c>
-      <c r="F97" s="9">
-        <v>29788444</v>
-      </c>
-      <c r="G97" s="9">
-        <v>22246344</v>
-      </c>
-      <c r="H97" s="9">
-        <v>16379805</v>
-      </c>
-      <c r="I97" s="9">
-        <v>60491666</v>
+      <c r="E97" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H97" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I97" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" s="10" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D98" s="11"/>
-      <c r="E98" s="11" t="s">
-        <v>12</v>
+      <c r="E98" s="11">
+        <v>0</v>
       </c>
       <c r="F98" s="11">
-        <v>180291429</v>
+        <v>0</v>
       </c>
       <c r="G98" s="11">
-        <v>195580882</v>
-      </c>
-      <c r="H98" s="11">
-        <v>223709016</v>
-      </c>
-      <c r="I98" s="11">
-        <v>534147982</v>
+        <v>0</v>
+      </c>
+      <c r="H98" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I98" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" s="8" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D99" s="9"/>
-      <c r="E99" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F99" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G99" s="9" t="s">
-        <v>12</v>
+      <c r="E99" s="9">
+        <v>0</v>
+      </c>
+      <c r="F99" s="9">
+        <v>0</v>
+      </c>
+      <c r="G99" s="9">
+        <v>0</v>
       </c>
       <c r="H99" s="9" t="s">
         <v>12</v>
@@ -2702,26 +2740,26 @@
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" s="10" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D100" s="11"/>
-      <c r="E100" s="11" t="s">
-        <v>12</v>
+      <c r="E100" s="11">
+        <v>43288739</v>
       </c>
       <c r="F100" s="11">
-        <v>0</v>
+        <v>38821986</v>
       </c>
       <c r="G100" s="11">
-        <v>0</v>
+        <v>51590627</v>
       </c>
       <c r="H100" s="11">
-        <v>0</v>
-      </c>
-      <c r="I100" s="11" t="s">
-        <v>12</v>
+        <v>120008954</v>
+      </c>
+      <c r="I100" s="11">
+        <v>166064216</v>
       </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.25">
@@ -2729,20 +2767,20 @@
         <v>38</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D101" s="9"/>
-      <c r="E101" s="9" t="s">
-        <v>12</v>
+      <c r="E101" s="9">
+        <v>0</v>
       </c>
       <c r="F101" s="9">
         <v>0</v>
       </c>
-      <c r="G101" s="9">
-        <v>0</v>
-      </c>
-      <c r="H101" s="9">
-        <v>0</v>
+      <c r="G101" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H101" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I101" s="9" t="s">
         <v>12</v>
@@ -2750,38 +2788,38 @@
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11">
-        <v>31058186</v>
+        <v>0</v>
       </c>
       <c r="F102" s="11">
-        <v>43288739</v>
+        <v>0</v>
       </c>
       <c r="G102" s="11">
-        <v>38821986</v>
-      </c>
-      <c r="H102" s="11">
-        <v>51590627</v>
-      </c>
-      <c r="I102" s="11">
-        <v>120008954</v>
+        <v>0</v>
+      </c>
+      <c r="H102" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I102" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D103" s="9"/>
-      <c r="E103" s="9" t="s">
-        <v>12</v>
+      <c r="E103" s="9">
+        <v>0</v>
       </c>
       <c r="F103" s="9">
         <v>0</v>
@@ -2797,52 +2835,24 @@
       </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B104" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C104" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D104" s="11"/>
-      <c r="E104" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F104" s="11">
-        <v>0</v>
-      </c>
-      <c r="G104" s="11">
-        <v>0</v>
-      </c>
-      <c r="H104" s="11">
-        <v>0</v>
-      </c>
-      <c r="I104" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B105" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C105" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D105" s="9"/>
-      <c r="E105" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F105" s="9">
-        <v>0</v>
-      </c>
-      <c r="G105" s="9">
-        <v>0</v>
-      </c>
-      <c r="H105" s="9">
-        <v>0</v>
-      </c>
-      <c r="I105" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
@@ -2854,15 +2864,27 @@
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
+    <row r="107" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B107" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H107" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I107" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
@@ -2874,910 +2896,1310 @@
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B109" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C109" s="6"/>
-      <c r="D109" s="6"/>
-      <c r="E109" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F109" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G109" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H109" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I109" s="6" t="s">
-        <v>9</v>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B109" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G109" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H109" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I109" s="9">
+        <v>20211983</v>
       </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
+      <c r="B110" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G110" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H110" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I110" s="11">
+        <v>-20164306</v>
+      </c>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" s="8" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F111" s="9">
+      <c r="F111" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G111" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H111" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I111" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B112" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C112" s="13"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="13">
+        <v>0</v>
+      </c>
+      <c r="F112" s="13">
+        <v>0</v>
+      </c>
+      <c r="G112" s="13">
+        <v>0</v>
+      </c>
+      <c r="H112" s="13">
+        <v>0</v>
+      </c>
+      <c r="I112" s="13">
+        <v>47677</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+    </row>
+    <row r="116" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B116" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H116" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I116" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B118" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9">
         <v>-386</v>
       </c>
-      <c r="G111" s="9">
-        <v>0</v>
-      </c>
-      <c r="H111" s="9">
+      <c r="F118" s="9">
+        <v>0</v>
+      </c>
+      <c r="G118" s="9">
         <v>-41244</v>
       </c>
-      <c r="I111" s="9">
+      <c r="H118" s="9">
         <v>-235720</v>
       </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B112" s="10" t="s">
+      <c r="I118" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B119" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C112" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D112" s="11"/>
-      <c r="E112" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F112" s="11">
-        <v>0</v>
-      </c>
-      <c r="G112" s="11">
-        <v>0</v>
-      </c>
-      <c r="H112" s="11">
-        <v>0</v>
-      </c>
-      <c r="I112" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B113" s="8" t="s">
+      <c r="C119" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D119" s="11"/>
+      <c r="E119" s="11">
+        <v>0</v>
+      </c>
+      <c r="F119" s="11">
+        <v>0</v>
+      </c>
+      <c r="G119" s="11">
+        <v>0</v>
+      </c>
+      <c r="H119" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I119" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B120" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C113" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D113" s="9"/>
-      <c r="E113" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F113" s="9">
-        <v>0</v>
-      </c>
-      <c r="G113" s="9">
-        <v>0</v>
-      </c>
-      <c r="H113" s="9">
-        <v>0</v>
-      </c>
-      <c r="I113" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B114" s="10" t="s">
+      <c r="C120" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9">
+        <v>0</v>
+      </c>
+      <c r="F120" s="9">
+        <v>0</v>
+      </c>
+      <c r="G120" s="9">
+        <v>0</v>
+      </c>
+      <c r="H120" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I120" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B121" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C114" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D114" s="11"/>
-      <c r="E114" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F114" s="11">
-        <v>0</v>
-      </c>
-      <c r="G114" s="11">
-        <v>0</v>
-      </c>
-      <c r="H114" s="11">
-        <v>0</v>
-      </c>
-      <c r="I114" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B115" s="8" t="s">
+      <c r="C121" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11">
+        <v>0</v>
+      </c>
+      <c r="F121" s="11">
+        <v>0</v>
+      </c>
+      <c r="G121" s="11">
+        <v>0</v>
+      </c>
+      <c r="H121" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I121" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B122" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C115" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D115" s="9"/>
-      <c r="E115" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F115" s="9">
+      <c r="C122" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9">
         <v>-5745</v>
       </c>
-      <c r="G115" s="9">
+      <c r="F122" s="9">
         <v>-73374</v>
       </c>
-      <c r="H115" s="9">
-        <v>0</v>
-      </c>
-      <c r="I115" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B116" s="10" t="s">
+      <c r="G122" s="9">
+        <v>0</v>
+      </c>
+      <c r="H122" s="9">
+        <v>0</v>
+      </c>
+      <c r="I122" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B123" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C116" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D116" s="11"/>
-      <c r="E116" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F116" s="11">
+      <c r="C123" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D123" s="11"/>
+      <c r="E123" s="11">
         <v>-33227</v>
       </c>
-      <c r="G116" s="11">
+      <c r="F123" s="11">
         <v>-82569</v>
       </c>
-      <c r="H116" s="11">
+      <c r="G123" s="11">
         <v>-72291</v>
       </c>
-      <c r="I116" s="11">
+      <c r="H123" s="11">
         <v>-37220</v>
       </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B117" s="8" t="s">
+      <c r="I123" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B124" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C117" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D117" s="9"/>
-      <c r="E117" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F117" s="9">
+      <c r="C124" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D124" s="9"/>
+      <c r="E124" s="9">
         <v>-1759</v>
       </c>
-      <c r="G117" s="9">
+      <c r="F124" s="9">
         <v>-500</v>
       </c>
-      <c r="H117" s="9">
-        <v>0</v>
-      </c>
-      <c r="I117" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B118" s="10" t="s">
+      <c r="G124" s="9">
+        <v>0</v>
+      </c>
+      <c r="H124" s="9">
+        <v>0</v>
+      </c>
+      <c r="I124" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B125" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C118" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D118" s="11"/>
-      <c r="E118" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F118" s="11">
+      <c r="C125" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D125" s="11"/>
+      <c r="E125" s="11">
         <v>-911969</v>
       </c>
-      <c r="G118" s="11">
+      <c r="F125" s="11">
         <v>-4243226</v>
       </c>
-      <c r="H118" s="11">
+      <c r="G125" s="11">
         <v>-4723459</v>
       </c>
-      <c r="I118" s="11">
+      <c r="H125" s="11">
         <v>-7933555</v>
       </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B119" s="8" t="s">
+      <c r="I125" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B126" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C119" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D119" s="9"/>
-      <c r="E119" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F119" s="9">
+      <c r="C126" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D126" s="9"/>
+      <c r="E126" s="9">
         <v>-130355</v>
       </c>
-      <c r="G119" s="9">
+      <c r="F126" s="9">
         <v>-454153</v>
       </c>
-      <c r="H119" s="9">
+      <c r="G126" s="9">
         <v>-386324</v>
       </c>
-      <c r="I119" s="9">
+      <c r="H126" s="9">
         <v>-664665</v>
       </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B120" s="10" t="s">
+      <c r="I126" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B127" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C120" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D120" s="11"/>
-      <c r="E120" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F120" s="11">
+      <c r="C127" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D127" s="11"/>
+      <c r="E127" s="11">
         <v>-65831</v>
       </c>
-      <c r="G120" s="11">
+      <c r="F127" s="11">
         <v>-239391</v>
       </c>
-      <c r="H120" s="11">
+      <c r="G127" s="11">
         <v>-213099</v>
       </c>
-      <c r="I120" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B121" s="8" t="s">
+      <c r="H127" s="11">
+        <v>0</v>
+      </c>
+      <c r="I127" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B128" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D128" s="9"/>
+      <c r="E128" s="9">
+        <v>0</v>
+      </c>
+      <c r="F128" s="9">
+        <v>0</v>
+      </c>
+      <c r="G128" s="9">
+        <v>0</v>
+      </c>
+      <c r="H128" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I128" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B129" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C121" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D121" s="9"/>
-      <c r="E121" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F121" s="9">
-        <v>0</v>
-      </c>
-      <c r="G121" s="9">
-        <v>0</v>
-      </c>
-      <c r="H121" s="9">
-        <v>0</v>
-      </c>
-      <c r="I121" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B122" s="10" t="s">
+      <c r="C129" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D129" s="11"/>
+      <c r="E129" s="11">
+        <v>0</v>
+      </c>
+      <c r="F129" s="11">
+        <v>0</v>
+      </c>
+      <c r="G129" s="11">
+        <v>0</v>
+      </c>
+      <c r="H129" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I129" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B130" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D130" s="9"/>
+      <c r="E130" s="9">
+        <v>-24052</v>
+      </c>
+      <c r="F130" s="9">
+        <v>-164217</v>
+      </c>
+      <c r="G130" s="9">
+        <v>-67211</v>
+      </c>
+      <c r="H130" s="9">
+        <v>-245354</v>
+      </c>
+      <c r="I130" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B131" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C122" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D122" s="11"/>
-      <c r="E122" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F122" s="11">
-        <v>0</v>
-      </c>
-      <c r="G122" s="11">
-        <v>0</v>
-      </c>
-      <c r="H122" s="11">
-        <v>0</v>
-      </c>
-      <c r="I122" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B123" s="8" t="s">
+      <c r="C131" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D131" s="11"/>
+      <c r="E131" s="11">
+        <v>0</v>
+      </c>
+      <c r="F131" s="11">
+        <v>0</v>
+      </c>
+      <c r="G131" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H131" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I131" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B132" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D132" s="9"/>
+      <c r="E132" s="9">
+        <v>0</v>
+      </c>
+      <c r="F132" s="9">
+        <v>0</v>
+      </c>
+      <c r="G132" s="9">
+        <v>0</v>
+      </c>
+      <c r="H132" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I132" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B133" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C133" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D133" s="11"/>
+      <c r="E133" s="11">
+        <v>0</v>
+      </c>
+      <c r="F133" s="11">
+        <v>0</v>
+      </c>
+      <c r="G133" s="11">
+        <v>0</v>
+      </c>
+      <c r="H133" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I133" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B134" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C134" s="15"/>
+      <c r="D134" s="15"/>
+      <c r="E134" s="15">
+        <v>-1173324</v>
+      </c>
+      <c r="F134" s="15">
+        <v>-5257430</v>
+      </c>
+      <c r="G134" s="15">
+        <v>-5503628</v>
+      </c>
+      <c r="H134" s="15">
+        <v>-9116514</v>
+      </c>
+      <c r="I134" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
+      <c r="I135" s="1"/>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+      <c r="G136" s="1"/>
+      <c r="H136" s="1"/>
+      <c r="I136" s="1"/>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
+    </row>
+    <row r="138" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B138" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F138" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G138" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H138" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I138" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B140" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D140" s="9"/>
+      <c r="E140" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F140" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G140" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H140" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I140" s="9">
+        <v>-15415178</v>
+      </c>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B141" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C141" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D141" s="11"/>
+      <c r="E141" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F141" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G141" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H141" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I141" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B142" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D142" s="9"/>
+      <c r="E142" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F142" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G142" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H142" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I142" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B143" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C143" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D143" s="11"/>
+      <c r="E143" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F143" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G143" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H143" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I143" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B144" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D144" s="9"/>
+      <c r="E144" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F144" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G144" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H144" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I144" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B145" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C145" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D145" s="11"/>
+      <c r="E145" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F145" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G145" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H145" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I145" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B146" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D146" s="9"/>
+      <c r="E146" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F146" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G146" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H146" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I146" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B147" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C123" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D123" s="9"/>
-      <c r="E123" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F123" s="9">
-        <v>-24052</v>
-      </c>
-      <c r="G123" s="9">
-        <v>-164217</v>
-      </c>
-      <c r="H123" s="9">
-        <v>-67211</v>
-      </c>
-      <c r="I123" s="9">
-        <v>-245354</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B124" s="10" t="s">
+      <c r="C147" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D147" s="11"/>
+      <c r="E147" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F147" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G147" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H147" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I147" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B148" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C148" s="15"/>
+      <c r="D148" s="15"/>
+      <c r="E148" s="15">
+        <v>0</v>
+      </c>
+      <c r="F148" s="15">
+        <v>0</v>
+      </c>
+      <c r="G148" s="15">
+        <v>0</v>
+      </c>
+      <c r="H148" s="15">
+        <v>0</v>
+      </c>
+      <c r="I148" s="15">
+        <v>-15415178</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+    </row>
+    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="I151" s="1"/>
+    </row>
+    <row r="152" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B152" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C152" s="6"/>
+      <c r="D152" s="6"/>
+      <c r="E152" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F152" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G152" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H152" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I152" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1"/>
+      <c r="I153" s="1"/>
+    </row>
+    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B154" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C154" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D154" s="9"/>
+      <c r="E154" s="9">
+        <v>735</v>
+      </c>
+      <c r="F154" s="9">
+        <v>83160</v>
+      </c>
+      <c r="G154" s="9">
+        <v>-41244</v>
+      </c>
+      <c r="H154" s="9">
+        <v>-75475</v>
+      </c>
+      <c r="I154" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B155" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C155" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D155" s="11"/>
+      <c r="E155" s="11">
+        <v>-4468</v>
+      </c>
+      <c r="F155" s="11">
+        <v>-11310</v>
+      </c>
+      <c r="G155" s="11">
+        <v>-13683</v>
+      </c>
+      <c r="H155" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I155" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B156" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C156" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D156" s="9"/>
+      <c r="E156" s="9">
+        <v>0</v>
+      </c>
+      <c r="F156" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G156" s="9">
+        <v>0</v>
+      </c>
+      <c r="H156" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I156" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B157" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C157" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D157" s="11"/>
+      <c r="E157" s="11">
+        <v>0</v>
+      </c>
+      <c r="F157" s="11">
+        <v>0</v>
+      </c>
+      <c r="G157" s="11">
+        <v>0</v>
+      </c>
+      <c r="H157" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I157" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B158" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C158" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D158" s="9"/>
+      <c r="E158" s="9">
+        <v>-4852</v>
+      </c>
+      <c r="F158" s="9">
+        <v>-7894</v>
+      </c>
+      <c r="G158" s="9">
+        <v>217202</v>
+      </c>
+      <c r="H158" s="9">
+        <v>254187</v>
+      </c>
+      <c r="I158" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B159" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C159" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D159" s="11"/>
+      <c r="E159" s="11">
+        <v>5257</v>
+      </c>
+      <c r="F159" s="11">
+        <v>0</v>
+      </c>
+      <c r="G159" s="11">
+        <v>13043</v>
+      </c>
+      <c r="H159" s="11">
+        <v>22803</v>
+      </c>
+      <c r="I159" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B160" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C160" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D160" s="9"/>
+      <c r="E160" s="9">
+        <v>30622</v>
+      </c>
+      <c r="F160" s="9">
+        <v>165656</v>
+      </c>
+      <c r="G160" s="9">
+        <v>205911</v>
+      </c>
+      <c r="H160" s="9">
+        <v>323478</v>
+      </c>
+      <c r="I160" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B161" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C161" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D161" s="11"/>
+      <c r="E161" s="11">
+        <v>142729</v>
+      </c>
+      <c r="F161" s="11">
+        <v>401759</v>
+      </c>
+      <c r="G161" s="11">
+        <v>1773033</v>
+      </c>
+      <c r="H161" s="11">
+        <v>4314036</v>
+      </c>
+      <c r="I161" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B162" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C162" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D162" s="9"/>
+      <c r="E162" s="9">
+        <v>61423</v>
+      </c>
+      <c r="F162" s="9">
+        <v>82896</v>
+      </c>
+      <c r="G162" s="9">
+        <v>-178366</v>
+      </c>
+      <c r="H162" s="9">
+        <v>438582</v>
+      </c>
+      <c r="I162" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B163" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C163" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D163" s="11"/>
+      <c r="E163" s="11">
+        <v>-2729</v>
+      </c>
+      <c r="F163" s="11">
+        <v>0</v>
+      </c>
+      <c r="G163" s="11">
+        <v>-49344</v>
+      </c>
+      <c r="H163" s="11">
+        <v>119115</v>
+      </c>
+      <c r="I163" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B164" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C164" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D164" s="9"/>
+      <c r="E164" s="9">
+        <v>0</v>
+      </c>
+      <c r="F164" s="9">
+        <v>0</v>
+      </c>
+      <c r="G164" s="9">
+        <v>0</v>
+      </c>
+      <c r="H164" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I164" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B165" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C165" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D165" s="11"/>
+      <c r="E165" s="11">
+        <v>0</v>
+      </c>
+      <c r="F165" s="11">
+        <v>0</v>
+      </c>
+      <c r="G165" s="11">
+        <v>0</v>
+      </c>
+      <c r="H165" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I165" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B166" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C166" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D166" s="9"/>
+      <c r="E166" s="9">
+        <v>65902</v>
+      </c>
+      <c r="F166" s="9">
+        <v>0</v>
+      </c>
+      <c r="G166" s="9">
+        <v>7647</v>
+      </c>
+      <c r="H166" s="9">
+        <v>129914</v>
+      </c>
+      <c r="I166" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B167" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C167" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D167" s="11"/>
+      <c r="E167" s="11">
+        <v>0</v>
+      </c>
+      <c r="F167" s="11">
+        <v>0</v>
+      </c>
+      <c r="G167" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H167" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I167" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B168" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C124" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D124" s="11"/>
-      <c r="E124" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F124" s="11">
-        <v>0</v>
-      </c>
-      <c r="G124" s="11">
-        <v>0</v>
-      </c>
-      <c r="H124" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I124" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B125" s="8" t="s">
+      <c r="C168" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D168" s="9"/>
+      <c r="E168" s="9">
+        <v>0</v>
+      </c>
+      <c r="F168" s="9">
+        <v>0</v>
+      </c>
+      <c r="G168" s="9">
+        <v>0</v>
+      </c>
+      <c r="H168" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I168" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B169" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C125" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D125" s="9"/>
-      <c r="E125" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F125" s="9">
-        <v>0</v>
-      </c>
-      <c r="G125" s="9">
-        <v>0</v>
-      </c>
-      <c r="H125" s="9">
-        <v>0</v>
-      </c>
-      <c r="I125" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B126" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C126" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D126" s="11"/>
-      <c r="E126" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F126" s="11">
-        <v>0</v>
-      </c>
-      <c r="G126" s="11">
-        <v>0</v>
-      </c>
-      <c r="H126" s="11">
-        <v>0</v>
-      </c>
-      <c r="I126" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B127" s="14" t="s">
+      <c r="C169" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D169" s="11"/>
+      <c r="E169" s="11">
+        <v>0</v>
+      </c>
+      <c r="F169" s="11">
+        <v>0</v>
+      </c>
+      <c r="G169" s="11">
+        <v>0</v>
+      </c>
+      <c r="H169" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I169" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B170" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C127" s="15"/>
-      <c r="D127" s="15"/>
-      <c r="E127" s="15">
-        <v>0</v>
-      </c>
-      <c r="F127" s="15">
-        <v>-1173324</v>
-      </c>
-      <c r="G127" s="15">
-        <v>-5257430</v>
-      </c>
-      <c r="H127" s="15">
-        <v>-5503628</v>
-      </c>
-      <c r="I127" s="15">
-        <v>-9116514</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
-      <c r="H128" s="1"/>
-      <c r="I128" s="1"/>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
-      <c r="G129" s="1"/>
-      <c r="H129" s="1"/>
-      <c r="I129" s="1"/>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
-      <c r="G130" s="1"/>
-      <c r="H130" s="1"/>
-      <c r="I130" s="1"/>
-    </row>
-    <row r="131" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B131" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C131" s="6"/>
-      <c r="D131" s="6"/>
-      <c r="E131" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F131" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G131" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H131" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I131" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
-      <c r="G132" s="1"/>
-      <c r="H132" s="1"/>
-      <c r="I132" s="1"/>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B133" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C133" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D133" s="9"/>
-      <c r="E133" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F133" s="9">
-        <v>735</v>
-      </c>
-      <c r="G133" s="9">
-        <v>83160</v>
-      </c>
-      <c r="H133" s="9">
-        <v>-41244</v>
-      </c>
-      <c r="I133" s="9">
-        <v>-75475</v>
-      </c>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B134" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C134" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D134" s="11"/>
-      <c r="E134" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F134" s="11">
-        <v>-4468</v>
-      </c>
-      <c r="G134" s="11">
-        <v>-11310</v>
-      </c>
-      <c r="H134" s="11">
-        <v>-13683</v>
-      </c>
-      <c r="I134" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B135" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C135" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D135" s="9"/>
-      <c r="E135" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F135" s="9">
-        <v>0</v>
-      </c>
-      <c r="G135" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H135" s="9">
-        <v>0</v>
-      </c>
-      <c r="I135" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B136" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C136" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D136" s="11"/>
-      <c r="E136" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F136" s="11">
-        <v>0</v>
-      </c>
-      <c r="G136" s="11">
-        <v>0</v>
-      </c>
-      <c r="H136" s="11">
-        <v>0</v>
-      </c>
-      <c r="I136" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B137" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C137" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D137" s="9"/>
-      <c r="E137" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F137" s="9">
-        <v>-4852</v>
-      </c>
-      <c r="G137" s="9">
-        <v>-7894</v>
-      </c>
-      <c r="H137" s="9">
-        <v>217202</v>
-      </c>
-      <c r="I137" s="9">
-        <v>254187</v>
-      </c>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B138" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C138" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D138" s="11"/>
-      <c r="E138" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F138" s="11">
-        <v>5257</v>
-      </c>
-      <c r="G138" s="11">
-        <v>0</v>
-      </c>
-      <c r="H138" s="11">
-        <v>13043</v>
-      </c>
-      <c r="I138" s="11">
-        <v>22803</v>
-      </c>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B139" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C139" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D139" s="9"/>
-      <c r="E139" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F139" s="9">
-        <v>30622</v>
-      </c>
-      <c r="G139" s="9">
-        <v>165656</v>
-      </c>
-      <c r="H139" s="9">
-        <v>205911</v>
-      </c>
-      <c r="I139" s="9">
-        <v>323478</v>
-      </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B140" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C140" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D140" s="11"/>
-      <c r="E140" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F140" s="11">
-        <v>142729</v>
-      </c>
-      <c r="G140" s="11">
-        <v>401759</v>
-      </c>
-      <c r="H140" s="11">
-        <v>1773033</v>
-      </c>
-      <c r="I140" s="11">
-        <v>4314036</v>
-      </c>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B141" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C141" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D141" s="9"/>
-      <c r="E141" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F141" s="9">
-        <v>61423</v>
-      </c>
-      <c r="G141" s="9">
-        <v>82896</v>
-      </c>
-      <c r="H141" s="9">
-        <v>-178366</v>
-      </c>
-      <c r="I141" s="9">
-        <v>438582</v>
-      </c>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B142" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C142" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D142" s="11"/>
-      <c r="E142" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F142" s="11">
-        <v>-2729</v>
-      </c>
-      <c r="G142" s="11">
-        <v>0</v>
-      </c>
-      <c r="H142" s="11">
-        <v>-49344</v>
-      </c>
-      <c r="I142" s="11">
-        <v>119115</v>
-      </c>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B143" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C143" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D143" s="9"/>
-      <c r="E143" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F143" s="9">
-        <v>0</v>
-      </c>
-      <c r="G143" s="9">
-        <v>0</v>
-      </c>
-      <c r="H143" s="9">
-        <v>0</v>
-      </c>
-      <c r="I143" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B144" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C144" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D144" s="11"/>
-      <c r="E144" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F144" s="11">
-        <v>0</v>
-      </c>
-      <c r="G144" s="11">
-        <v>0</v>
-      </c>
-      <c r="H144" s="11">
-        <v>0</v>
-      </c>
-      <c r="I144" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B145" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C145" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D145" s="9"/>
-      <c r="E145" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F145" s="9">
-        <v>65902</v>
-      </c>
-      <c r="G145" s="9">
-        <v>0</v>
-      </c>
-      <c r="H145" s="9">
-        <v>7647</v>
-      </c>
-      <c r="I145" s="9">
-        <v>129914</v>
-      </c>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B146" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C146" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D146" s="11"/>
-      <c r="E146" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F146" s="11">
-        <v>0</v>
-      </c>
-      <c r="G146" s="11">
-        <v>0</v>
-      </c>
-      <c r="H146" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I146" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B147" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C147" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D147" s="9"/>
-      <c r="E147" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F147" s="9">
-        <v>0</v>
-      </c>
-      <c r="G147" s="9">
-        <v>0</v>
-      </c>
-      <c r="H147" s="9">
-        <v>0</v>
-      </c>
-      <c r="I147" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B148" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C148" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D148" s="11"/>
-      <c r="E148" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F148" s="11">
-        <v>0</v>
-      </c>
-      <c r="G148" s="11">
-        <v>0</v>
-      </c>
-      <c r="H148" s="11">
-        <v>0</v>
-      </c>
-      <c r="I148" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B149" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C149" s="15"/>
-      <c r="D149" s="15"/>
-      <c r="E149" s="15">
-        <v>0</v>
-      </c>
-      <c r="F149" s="15">
+      <c r="C170" s="15"/>
+      <c r="D170" s="15"/>
+      <c r="E170" s="15">
         <v>294619</v>
       </c>
-      <c r="G149" s="15">
+      <c r="F170" s="15">
         <v>714267</v>
       </c>
-      <c r="H149" s="15">
+      <c r="G170" s="15">
         <v>1934199</v>
       </c>
-      <c r="I149" s="15">
+      <c r="H170" s="15">
         <v>5526640</v>
+      </c>
+      <c r="I170" s="15">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
